--- a/biology/Médecine/Irish_Spring/Irish_Spring.xlsx
+++ b/biology/Médecine/Irish_Spring/Irish_Spring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Irish Spring est une marque de savon déodorant de Colgate-Palmolive, introduite pendant les années 1970.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Irish Spring a en premier été introduit en Allemagne sous le nom de Irischer Frühling, en 1970, puis, aux États-Unis, en 1972, sous le nom d'Irish Spring[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Irish Spring a en premier été introduit en Allemagne sous le nom de Irischer Frühling, en 1970, puis, aux États-Unis, en 1972, sous le nom d'Irish Spring.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les produits d'Irish Spring incluent :
 Bain moussant
 Déodorants
-Savons[2]</t>
+Savons</t>
         </is>
       </c>
     </row>
@@ -576,9 +592,11 @@
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2017, la vidéaste Jenna Marbles a effectué la promotion d'Irish Spring comme étant le savon préféré de son chien Kermit[3]. L'année suivante, cette dernière a fait un bain de mousse en savon Irish Spring pour son chien[4]. Les deux vidéos n'ont pas été sponsorisés par la marque, mais cette dernière a profité de la publicité qu'elle a gagné en envoyant à Marbles un ensemble de savons personnalisé à Kermit, événement que Marbles a publié sur Snapchat[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, la vidéaste Jenna Marbles a effectué la promotion d'Irish Spring comme étant le savon préféré de son chien Kermit. L'année suivante, cette dernière a fait un bain de mousse en savon Irish Spring pour son chien. Les deux vidéos n'ont pas été sponsorisés par la marque, mais cette dernière a profité de la publicité qu'elle a gagné en envoyant à Marbles un ensemble de savons personnalisé à Kermit, événement que Marbles a publié sur Snapchat.
 </t>
         </is>
       </c>
